--- a/data/outputs/OR_elsevier/54.xlsx
+++ b/data/outputs/OR_elsevier/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS145"/>
+  <dimension ref="A1:BU145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84929961868</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84921910540</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,6 +1401,12 @@
           <t>2-s2.0-84937736469</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1598,6 +1626,12 @@
           <t>2-s2.0-84925715710</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1813,6 +1847,12 @@
           <t>2-s2.0-84955383513</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2036,6 +2076,12 @@
           <t>2-s2.0-85027931644</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2250,6 +2296,12 @@
         <is>
           <t>2-s2.0-84921864020</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84937724286</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2669,6 +2727,12 @@
           <t>2-s2.0-84921973748</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2892,6 +2956,12 @@
           <t>2-s2.0-84930180400</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3107,6 +3177,12 @@
           <t>2-s2.0-84921861596</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3322,6 +3398,12 @@
           <t>2-s2.0-84937705225</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3545,6 +3627,12 @@
           <t>2-s2.0-84955329191</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3759,6 +3847,12 @@
         <is>
           <t>2-s2.0-84937730307</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -3963,6 +4057,12 @@
           <t>2-s2.0-84921917200</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4186,6 +4286,12 @@
           <t>2-s2.0-84921921366</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4397,6 +4503,12 @@
           <t>2-s2.0-84921882192</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4611,6 +4723,12 @@
         <is>
           <t>2-s2.0-85027945918</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -4843,6 +4961,12 @@
           <t>2-s2.0-84945495002</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5066,6 +5190,12 @@
           <t>2-s2.0-84937682782</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5284,6 +5414,12 @@
         <is>
           <t>2-s2.0-84921981302</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -5516,6 +5652,12 @@
           <t>2-s2.0-84945470818</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5727,6 +5869,12 @@
           <t>2-s2.0-84925769204</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5942,6 +6090,12 @@
           <t>2-s2.0-84921835505</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6165,6 +6319,12 @@
           <t>2-s2.0-84955371633</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6392,6 +6552,12 @@
           <t>2-s2.0-84937725017</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6607,6 +6773,12 @@
           <t>2-s2.0-84921827582</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6826,6 +6998,12 @@
           <t>2-s2.0-84955372144</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7040,6 +7218,12 @@
         <is>
           <t>2-s2.0-84955350041</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -7248,6 +7432,12 @@
           <t>2-s2.0-84937724293</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7467,6 +7657,12 @@
           <t>2-s2.0-84925777807</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7682,6 +7878,12 @@
           <t>2-s2.0-84925716448</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7901,6 +8103,12 @@
           <t>2-s2.0-84921895039</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8128,6 +8336,12 @@
           <t>2-s2.0-85027927060</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8351,6 +8565,12 @@
           <t>2-s2.0-84955299848</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8574,6 +8794,12 @@
           <t>2-s2.0-84955237459</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8796,6 +9022,12 @@
         <is>
           <t>2-s2.0-84930179215</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -9004,6 +9236,12 @@
           <t>2-s2.0-84921862081</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9219,6 +9457,12 @@
           <t>2-s2.0-84921847608</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9433,6 +9677,12 @@
         <is>
           <t>2-s2.0-84921933936</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -9645,6 +9895,12 @@
           <t>2-s2.0-84921978934</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9860,6 +10116,12 @@
           <t>2-s2.0-84942296529</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10075,6 +10337,12 @@
           <t>2-s2.0-84942294116</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10289,6 +10557,12 @@
         <is>
           <t>2-s2.0-84930182950</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -10497,6 +10771,12 @@
           <t>2-s2.0-84955395821</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10719,6 +10999,12 @@
         <is>
           <t>2-s2.0-84930182591</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -10927,6 +11213,12 @@
           <t>2-s2.0-84925746343</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11134,6 +11426,12 @@
           <t>2-s2.0-84955371599</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11353,6 +11651,12 @@
           <t>2-s2.0-85027953896</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11576,6 +11880,12 @@
           <t>2-s2.0-84955358300</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11814,6 +12124,12 @@
         <is>
           <t>2-s2.0-84945296464</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -12029,6 +12345,12 @@
         <is>
           <t>2-s2.0-84937696985</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -12237,6 +12559,12 @@
           <t>2-s2.0-84930178872</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12460,6 +12788,12 @@
           <t>2-s2.0-84925730038</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12675,6 +13009,12 @@
           <t>2-s2.0-84925714249</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12886,6 +13226,12 @@
           <t>2-s2.0-84921886389</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13100,6 +13446,12 @@
         <is>
           <t>2-s2.0-84921830675</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -13308,6 +13660,12 @@
           <t>2-s2.0-84921883793</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13515,6 +13873,12 @@
           <t>2-s2.0-84955346944</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13730,6 +14094,12 @@
           <t>2-s2.0-84955385885</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13964,6 +14334,12 @@
         <is>
           <t>2-s2.0-84945259529</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -14176,6 +14552,12 @@
           <t>2-s2.0-84921953751</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14391,6 +14773,12 @@
           <t>2-s2.0-84955337841</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14602,6 +14990,12 @@
           <t>2-s2.0-84955359069</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14825,6 +15219,12 @@
           <t>2-s2.0-84955350494</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15042,6 +15442,12 @@
           <t>2-s2.0-84955372904</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15265,6 +15671,12 @@
           <t>2-s2.0-84955357802</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15480,6 +15892,12 @@
           <t>2-s2.0-84942292522</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15691,6 +16109,12 @@
           <t>2-s2.0-84942295763</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15905,6 +16329,12 @@
         <is>
           <t>2-s2.0-84930178046</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -16113,6 +16543,12 @@
           <t>2-s2.0-84930180599</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16320,6 +16756,12 @@
           <t>2-s2.0-84925724433</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16532,6 +16974,12 @@
         <is>
           <t>2-s2.0-84925825341</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -16740,6 +17188,12 @@
           <t>2-s2.0-84925746963</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16947,6 +17401,12 @@
           <t>2-s2.0-85027920052</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17158,6 +17618,12 @@
           <t>2-s2.0-84955406799</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17404,6 +17870,12 @@
         <is>
           <t>2-s2.0-84945305722</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -17615,6 +18087,12 @@
         <is>
           <t>2-s2.0-84942234898</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -17823,6 +18301,12 @@
           <t>2-s2.0-84942292777</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18026,6 +18510,12 @@
           <t>2-s2.0-84937729494</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18233,6 +18723,12 @@
           <t>2-s2.0-84930146339</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18440,6 +18936,12 @@
           <t>2-s2.0-84930182059</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18654,6 +19156,12 @@
         <is>
           <t>2-s2.0-84921869476</t>
         </is>
+      </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -18862,6 +19370,12 @@
           <t>2-s2.0-84955389191</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19069,6 +19583,12 @@
           <t>2-s2.0-84955360891</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19284,6 +19804,12 @@
           <t>2-s2.0-84955413231</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19499,6 +20025,12 @@
           <t>2-s2.0-84955343458</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19747,6 +20279,12 @@
         <is>
           <t>2-s2.0-84945293466</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -19955,6 +20493,12 @@
           <t>2-s2.0-84942239776</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20169,6 +20713,12 @@
         <is>
           <t>2-s2.0-84942250733</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -20373,6 +20923,12 @@
           <t>2-s2.0-84937734444</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20588,6 +21144,12 @@
           <t>2-s2.0-84930177550</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20803,6 +21365,12 @@
           <t>2-s2.0-84930179607</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21017,6 +21585,12 @@
         <is>
           <t>2-s2.0-84930177587</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -21225,6 +21799,12 @@
           <t>2-s2.0-84930181776</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21432,6 +22012,12 @@
           <t>2-s2.0-84930178930</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21639,6 +22225,12 @@
           <t>2-s2.0-84925820451</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21846,6 +22438,12 @@
           <t>2-s2.0-84921832765</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22069,6 +22667,12 @@
           <t>2-s2.0-84921891300</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22280,6 +22884,12 @@
           <t>2-s2.0-84955375043</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22495,6 +23105,12 @@
           <t>2-s2.0-85027953802</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22709,6 +23325,12 @@
         <is>
           <t>2-s2.0-84955368049</t>
         </is>
+      </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -22917,6 +23539,12 @@
           <t>2-s2.0-84955418633</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23160,6 +23788,12 @@
           <t>2-s2.0-84945248463</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23398,6 +24032,12 @@
         <is>
           <t>2-s2.0-84945292245</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -23626,6 +24266,12 @@
           <t>2-s2.0-84945468034</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23865,6 +24511,12 @@
           <t>2-s2.0-84945443077</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24105,6 +24757,12 @@
         <is>
           <t>2-s2.0-84945314248</t>
         </is>
+      </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -24320,6 +24978,12 @@
         <is>
           <t>2-s2.0-84942251366</t>
         </is>
+      </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -24528,6 +25192,12 @@
           <t>2-s2.0-84928742299</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24743,6 +25413,12 @@
           <t>2-s2.0-84942292781</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24954,6 +25630,12 @@
           <t>2-s2.0-84937732409</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25165,6 +25847,12 @@
           <t>2-s2.0-84937730410</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25375,6 +26063,12 @@
         <is>
           <t>2-s2.0-84925763243</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -25579,6 +26273,12 @@
       <c r="BQ116" t="inlineStr"/>
       <c r="BR116" t="inlineStr"/>
       <c r="BS116" t="inlineStr"/>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25762,6 +26462,12 @@
           <t>2-s2.0-84955261445</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25969,6 +26675,12 @@
           <t>2-s2.0-84955376649</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26200,6 +26912,12 @@
           <t>2-s2.0-84945474890</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26431,6 +27149,12 @@
           <t>2-s2.0-84945484416</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26669,6 +27393,12 @@
         <is>
           <t>2-s2.0-84945492134</t>
         </is>
+      </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -26901,6 +27631,12 @@
           <t>2-s2.0-84945455412</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27108,6 +27844,12 @@
           <t>2-s2.0-84942292563</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27322,6 +28064,12 @@
         <is>
           <t>2-s2.0-84942295781</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -27530,6 +28278,12 @@
           <t>2-s2.0-84942244863</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27744,6 +28498,12 @@
         <is>
           <t>2-s2.0-84930178920</t>
         </is>
+      </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -27948,6 +28708,12 @@
           <t>2-s2.0-84925810864</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28155,6 +28921,12 @@
           <t>2-s2.0-84921865654</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28365,6 +29137,12 @@
         <is>
           <t>2-s2.0-84955353100</t>
         </is>
+      </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -28569,6 +29347,12 @@
           <t>2-s2.0-85028223289</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28776,6 +29560,12 @@
           <t>2-s2.0-84955408702</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28990,6 +29780,12 @@
         <is>
           <t>2-s2.0-84955273004</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -29185,6 +29981,12 @@
         <is>
           <t>2-s2.0-84945273523</t>
         </is>
+      </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -29373,6 +30175,12 @@
           <t>2-s2.0-84942234522</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29575,6 +30383,12 @@
         <is>
           <t>2-s2.0-84942247514</t>
         </is>
+      </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -29771,6 +30585,12 @@
           <t>2-s2.0-84942295343</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29977,6 +30797,12 @@
         <is>
           <t>2-s2.0-84942293732</t>
         </is>
+      </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -30161,6 +30987,12 @@
           <t>2-s2.0-84937701884</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30375,6 +31207,12 @@
         <is>
           <t>2-s2.0-84937732962</t>
         </is>
+      </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -30582,6 +31420,12 @@
         <is>
           <t>2-s2.0-84930179279</t>
         </is>
+      </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -30766,6 +31610,12 @@
       <c r="BQ141" t="inlineStr"/>
       <c r="BR141" t="inlineStr"/>
       <c r="BS141" t="inlineStr"/>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30953,6 +31803,12 @@
           <t>2-s2.0-84925649875</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31160,6 +32016,12 @@
           <t>2-s2.0-84925817988</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31374,6 +32236,12 @@
         <is>
           <t>2-s2.0-84925715322</t>
         </is>
+      </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -31562,6 +32430,12 @@
           <t>2-s2.0-84921790097</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
